--- a/设计文档/中心站管理子系统接口说明.xlsx
+++ b/设计文档/中心站管理子系统接口说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="337">
   <si>
     <t>接口说明：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -787,6 +787,539 @@
   </si>
   <si>
     <t>couponID               int                          代金券ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">departmentName        String                        部门名称  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationID              int                          分站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         新增部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/insertDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/updateDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         更新部门结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/deleteDepartment?departmentID=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         删除部门结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过get方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取部门列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/departmentList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"departmentID":1,"departmentName":"test","stationID":1}]}</t>
+  </si>
+  <si>
+    <t>size                  int                         data数组长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                  数组                        部门列表数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过ID获取部门列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/departmentByID?departmentID=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过部门名获取部门列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/departmentListByName?departmentName=t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/insertDuty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dutyName              String                        职务名称  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wage                   int                           工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/updateDuty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         更新职务结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         新增职务结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/deleteDuty?dutyType=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dutyType               int                           职务ID  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         删除职务结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/dutyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过get方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过get方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":2,"data":[{"dutyType":1,"dutyName":"deliver"},{"dutyType":2,"dutyName":"saler"}]}</t>
+  </si>
+  <si>
+    <t>通过职务类型获取职务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/dutyByType?dutyType=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dutyType               int                         职务类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"dutyType":2,"dutyName":"saler"}]}</t>
+  </si>
+  <si>
+    <t>通过职务名称获取职务列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/dutyListByName?dutyName=s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                  数组                        职务列表数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                  数组                        职务列表数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                  数组                        职务列表数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增运输公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/insertTransferCom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">companyName           String                        公司名称  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone                 String                        联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address               String                        公司地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         新增公司结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/updateTransferCom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         更新公司结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除运输公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">transferComID          int                          运输公司ID  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/deleteTransferCom?transferComID=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/transferComList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输公司列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                  数组                        运输公司列表数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":2,"data":[{"companyID":1,"companyName":"test1","phone":"123","address":"123"},{"companyID":2,"companyName":"test2","phone":"122","address":"333"}]}</t>
+  </si>
+  <si>
+    <t>通过公司名查询运输公司列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/transferComByName?transferComName=t</t>
+  </si>
+  <si>
+    <t>transferComName       String                       运输公司名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/insertDeliverArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增投递段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">deliverAreaValue      String                       投递段地址  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stationID              int                         所属分站ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverPointID         int                         送报点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新投递段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/updateDeliverArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         新增投递段结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         更新投递段结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         删除运输公司结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除投递段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">deliverAreaID          int                          投递段ID  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         删除投递段结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/deleteDeliverArea?deliverAreaID=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递段列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                  数组                        投递段列表数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/deliverAreaList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":2,"data":[{"deliverAreaID":1,"deliverAreaValue":"test","stationID":1,"deliverPointID":1},{"deliverAreaID":3,"deliverAreaValue":"test","stationID":1,"deliverPointID":1}]}</t>
+  </si>
+  <si>
+    <t>通过ID查找投递段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/deliverAreaByID?deliverAreaID=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"deliverAreaID":3,"deliverAreaValue":"test","stationID":1,"deliverPointID":1}]}</t>
+  </si>
+  <si>
+    <t>通过投递段名查找投递段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增用户变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/insertUserModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">orderID                int                           订单ID  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type                   int                          变更类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason                String                        变更原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         新增变更记录结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/updateUserModify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         更新变更记录结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除用户变更记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recordID               int                          变更记录ID  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         删除变更记录结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/deleteUserModify?recordID=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverAreaName       String                       投递段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/deliverAreaListByName?deliverAreaName=t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户变更记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/userModifyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":3,"data":[{"recordID":1,"orderID":1,"type":1,"reason":"teste"},{"recordID":2,"orderID":1,"type":2,"reason":"teste"},{"recordID":3,"orderID":1,"type":3,"reason":"ddd"}]}</t>
+  </si>
+  <si>
+    <t>data                  数组                        用户变更列表数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过变更类型查询用户变更记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/userModifyListByType?type=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"recordID":2,"orderID":1,"type":2,"reason":"teste"}]}</t>
+  </si>
+  <si>
+    <t>type                   int                        用户变更类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增报社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/insertNewsOffice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">noName                String                        报社名称  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noPhone               String                        报社电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         新增报社结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新报社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/updateNewsOffice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         更新报社结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除报社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">noID                   int                           报社ID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result                int                         删除报社结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/deleteNewsOffice?noID=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报社列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/newsOfficeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":2,"data":[{"noID":1,"noName":"test","noPhone":"123789"},{"noID":2,"noName":"test2","noPhone":"12333"}]}</t>
+  </si>
+  <si>
+    <t>data                  数组                        报社列表数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过报社ID查询报社列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data                  数组                        报社列表数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/newsOfficeByID?noID=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"size":1,"data":[{"noID":2,"noName":"test2","noPhone":"12333"}]}</t>
+  </si>
+  <si>
+    <t>通过报社名称查询报社列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noName                String                        报刊名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8080/POMSProject/center/dictionaryMaintain/newsOfficeListByName?noName=t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,10 +1707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B614"/>
+  <dimension ref="A1:B1133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
-      <selection activeCell="B616" sqref="B616"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4333,6 +4866,2638 @@
         <v>196</v>
       </c>
     </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A617" t="s">
+        <v>2</v>
+      </c>
+      <c r="B617" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A618" t="s">
+        <v>1</v>
+      </c>
+      <c r="B618" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A619" t="s">
+        <v>0</v>
+      </c>
+      <c r="B619" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A620" t="s">
+        <v>3</v>
+      </c>
+      <c r="B620" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B621" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B622" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A624" t="s">
+        <v>5</v>
+      </c>
+      <c r="B624" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A625" t="s">
+        <v>6</v>
+      </c>
+      <c r="B625" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B626" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A628" t="s">
+        <v>8</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A631" t="s">
+        <v>2</v>
+      </c>
+      <c r="B631" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A632" t="s">
+        <v>1</v>
+      </c>
+      <c r="B632" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A633" t="s">
+        <v>0</v>
+      </c>
+      <c r="B633" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A634" t="s">
+        <v>3</v>
+      </c>
+      <c r="B634" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B635" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B636" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A638" t="s">
+        <v>5</v>
+      </c>
+      <c r="B638" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A639" t="s">
+        <v>6</v>
+      </c>
+      <c r="B639" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B640" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A642" t="s">
+        <v>8</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A645" t="s">
+        <v>2</v>
+      </c>
+      <c r="B645" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A646" t="s">
+        <v>1</v>
+      </c>
+      <c r="B646" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A647" t="s">
+        <v>0</v>
+      </c>
+      <c r="B647" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A648" t="s">
+        <v>3</v>
+      </c>
+      <c r="B648" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B649" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B650" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A652" t="s">
+        <v>5</v>
+      </c>
+      <c r="B652" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A653" t="s">
+        <v>6</v>
+      </c>
+      <c r="B653" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B654" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A656" t="s">
+        <v>8</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A659" t="s">
+        <v>2</v>
+      </c>
+      <c r="B659" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A660" t="s">
+        <v>1</v>
+      </c>
+      <c r="B660" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A661" t="s">
+        <v>0</v>
+      </c>
+      <c r="B661" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A662" t="s">
+        <v>3</v>
+      </c>
+      <c r="B662" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B663" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A665" t="s">
+        <v>5</v>
+      </c>
+      <c r="B665" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A666" t="s">
+        <v>6</v>
+      </c>
+      <c r="B666" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B667" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B668" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A670" t="s">
+        <v>8</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A673" t="s">
+        <v>2</v>
+      </c>
+      <c r="B673" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A674" t="s">
+        <v>1</v>
+      </c>
+      <c r="B674" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A675" t="s">
+        <v>0</v>
+      </c>
+      <c r="B675" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A676" t="s">
+        <v>3</v>
+      </c>
+      <c r="B676" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B677" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A679" t="s">
+        <v>5</v>
+      </c>
+      <c r="B679" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A680" t="s">
+        <v>6</v>
+      </c>
+      <c r="B680" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B681" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B682" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A684" t="s">
+        <v>8</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A687" t="s">
+        <v>2</v>
+      </c>
+      <c r="B687" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A688" t="s">
+        <v>1</v>
+      </c>
+      <c r="B688" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A689" t="s">
+        <v>0</v>
+      </c>
+      <c r="B689" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A690" t="s">
+        <v>3</v>
+      </c>
+      <c r="B690" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B691" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A693" t="s">
+        <v>5</v>
+      </c>
+      <c r="B693" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A694" t="s">
+        <v>6</v>
+      </c>
+      <c r="B694" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B695" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B696" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A698" t="s">
+        <v>8</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A701" t="s">
+        <v>2</v>
+      </c>
+      <c r="B701" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A702" t="s">
+        <v>1</v>
+      </c>
+      <c r="B702" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A703" t="s">
+        <v>0</v>
+      </c>
+      <c r="B703" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A704" t="s">
+        <v>3</v>
+      </c>
+      <c r="B704" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B705" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A707" t="s">
+        <v>5</v>
+      </c>
+      <c r="B707" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A708" t="s">
+        <v>6</v>
+      </c>
+      <c r="B708" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B709" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B710" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A712" t="s">
+        <v>8</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A715" t="s">
+        <v>2</v>
+      </c>
+      <c r="B715" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A716" t="s">
+        <v>1</v>
+      </c>
+      <c r="B716" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A717" t="s">
+        <v>0</v>
+      </c>
+      <c r="B717" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A718" t="s">
+        <v>3</v>
+      </c>
+      <c r="B718" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B719" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B720" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A722" t="s">
+        <v>5</v>
+      </c>
+      <c r="B722" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A723" t="s">
+        <v>6</v>
+      </c>
+      <c r="B723" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B724" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A726" t="s">
+        <v>8</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A729" t="s">
+        <v>2</v>
+      </c>
+      <c r="B729" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A730" t="s">
+        <v>1</v>
+      </c>
+      <c r="B730" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A731" t="s">
+        <v>0</v>
+      </c>
+      <c r="B731" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A732" t="s">
+        <v>3</v>
+      </c>
+      <c r="B732" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B733" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B734" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A736" t="s">
+        <v>5</v>
+      </c>
+      <c r="B736" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A737" t="s">
+        <v>6</v>
+      </c>
+      <c r="B737" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B738" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A740" t="s">
+        <v>8</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A743" t="s">
+        <v>2</v>
+      </c>
+      <c r="B743" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A744" t="s">
+        <v>1</v>
+      </c>
+      <c r="B744" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A745" t="s">
+        <v>0</v>
+      </c>
+      <c r="B745" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A746" t="s">
+        <v>3</v>
+      </c>
+      <c r="B746" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B747" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A749" t="s">
+        <v>5</v>
+      </c>
+      <c r="B749" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A750" t="s">
+        <v>6</v>
+      </c>
+      <c r="B750" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B751" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A753" t="s">
+        <v>8</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A756" t="s">
+        <v>2</v>
+      </c>
+      <c r="B756" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A757" t="s">
+        <v>1</v>
+      </c>
+      <c r="B757" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A758" t="s">
+        <v>0</v>
+      </c>
+      <c r="B758" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A759" t="s">
+        <v>3</v>
+      </c>
+      <c r="B759" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B760" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A762" t="s">
+        <v>5</v>
+      </c>
+      <c r="B762" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A763" t="s">
+        <v>6</v>
+      </c>
+      <c r="B763" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B764" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B765" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A767" t="s">
+        <v>8</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A770" t="s">
+        <v>2</v>
+      </c>
+      <c r="B770" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A771" t="s">
+        <v>1</v>
+      </c>
+      <c r="B771" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A772" t="s">
+        <v>0</v>
+      </c>
+      <c r="B772" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A773" t="s">
+        <v>3</v>
+      </c>
+      <c r="B773" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B774" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A776" t="s">
+        <v>5</v>
+      </c>
+      <c r="B776" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A777" t="s">
+        <v>6</v>
+      </c>
+      <c r="B777" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B778" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B779" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A781" t="s">
+        <v>8</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A784" t="s">
+        <v>2</v>
+      </c>
+      <c r="B784" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A785" t="s">
+        <v>1</v>
+      </c>
+      <c r="B785" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A786" t="s">
+        <v>0</v>
+      </c>
+      <c r="B786" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A787" t="s">
+        <v>3</v>
+      </c>
+      <c r="B787" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B788" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A790" t="s">
+        <v>5</v>
+      </c>
+      <c r="B790" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A791" t="s">
+        <v>6</v>
+      </c>
+      <c r="B791" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B792" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B793" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A795" t="s">
+        <v>8</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A798" t="s">
+        <v>2</v>
+      </c>
+      <c r="B798" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A799" t="s">
+        <v>1</v>
+      </c>
+      <c r="B799" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A800" t="s">
+        <v>0</v>
+      </c>
+      <c r="B800" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A801" t="s">
+        <v>3</v>
+      </c>
+      <c r="B801" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B802" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A804" t="s">
+        <v>5</v>
+      </c>
+      <c r="B804" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A805" t="s">
+        <v>6</v>
+      </c>
+      <c r="B805" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B806" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B807" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A809" t="s">
+        <v>8</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A812" t="s">
+        <v>2</v>
+      </c>
+      <c r="B812" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A813" t="s">
+        <v>1</v>
+      </c>
+      <c r="B813" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A814" t="s">
+        <v>0</v>
+      </c>
+      <c r="B814" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A815" t="s">
+        <v>3</v>
+      </c>
+      <c r="B815" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B816" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A818" t="s">
+        <v>5</v>
+      </c>
+      <c r="B818" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A819" t="s">
+        <v>6</v>
+      </c>
+      <c r="B819" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B820" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B821" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A823" t="s">
+        <v>8</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A826" t="s">
+        <v>2</v>
+      </c>
+      <c r="B826" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A827" t="s">
+        <v>1</v>
+      </c>
+      <c r="B827" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A828" t="s">
+        <v>0</v>
+      </c>
+      <c r="B828" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A829" t="s">
+        <v>3</v>
+      </c>
+      <c r="B829" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B830" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B831" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B832" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A834" t="s">
+        <v>5</v>
+      </c>
+      <c r="B834" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A835" t="s">
+        <v>6</v>
+      </c>
+      <c r="B835" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B836" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A838" t="s">
+        <v>8</v>
+      </c>
+      <c r="B838" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A841" t="s">
+        <v>2</v>
+      </c>
+      <c r="B841" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A842" t="s">
+        <v>1</v>
+      </c>
+      <c r="B842" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A843" t="s">
+        <v>0</v>
+      </c>
+      <c r="B843" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A844" t="s">
+        <v>3</v>
+      </c>
+      <c r="B844" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B845" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B846" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B847" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A849" t="s">
+        <v>5</v>
+      </c>
+      <c r="B849" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A850" t="s">
+        <v>6</v>
+      </c>
+      <c r="B850" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B851" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A853" t="s">
+        <v>8</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A856" t="s">
+        <v>2</v>
+      </c>
+      <c r="B856" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A857" t="s">
+        <v>1</v>
+      </c>
+      <c r="B857" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A858" t="s">
+        <v>0</v>
+      </c>
+      <c r="B858" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A859" t="s">
+        <v>3</v>
+      </c>
+      <c r="B859" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B860" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A862" t="s">
+        <v>5</v>
+      </c>
+      <c r="B862" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A863" t="s">
+        <v>6</v>
+      </c>
+      <c r="B863" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B864" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A866" t="s">
+        <v>8</v>
+      </c>
+      <c r="B866" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A869" t="s">
+        <v>2</v>
+      </c>
+      <c r="B869" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A870" t="s">
+        <v>1</v>
+      </c>
+      <c r="B870" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A871" t="s">
+        <v>0</v>
+      </c>
+      <c r="B871" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A872" t="s">
+        <v>3</v>
+      </c>
+      <c r="B872" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B873" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A875" t="s">
+        <v>5</v>
+      </c>
+      <c r="B875" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A876" t="s">
+        <v>6</v>
+      </c>
+      <c r="B876" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B877" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B878" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A880" t="s">
+        <v>8</v>
+      </c>
+      <c r="B880" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A883" t="s">
+        <v>2</v>
+      </c>
+      <c r="B883" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A884" t="s">
+        <v>1</v>
+      </c>
+      <c r="B884" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A885" t="s">
+        <v>0</v>
+      </c>
+      <c r="B885" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A886" t="s">
+        <v>3</v>
+      </c>
+      <c r="B886" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B887" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A889" t="s">
+        <v>5</v>
+      </c>
+      <c r="B889" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A890" t="s">
+        <v>6</v>
+      </c>
+      <c r="B890" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B891" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B892" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A894" t="s">
+        <v>8</v>
+      </c>
+      <c r="B894" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A897" t="s">
+        <v>2</v>
+      </c>
+      <c r="B897" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A898" t="s">
+        <v>1</v>
+      </c>
+      <c r="B898" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A899" t="s">
+        <v>0</v>
+      </c>
+      <c r="B899" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A900" t="s">
+        <v>3</v>
+      </c>
+      <c r="B900" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B901" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B902" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B903" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A905" t="s">
+        <v>5</v>
+      </c>
+      <c r="B905" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A906" t="s">
+        <v>6</v>
+      </c>
+      <c r="B906" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B907" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A909" t="s">
+        <v>8</v>
+      </c>
+      <c r="B909" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A912" t="s">
+        <v>2</v>
+      </c>
+      <c r="B912" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A913" t="s">
+        <v>1</v>
+      </c>
+      <c r="B913" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A914" t="s">
+        <v>0</v>
+      </c>
+      <c r="B914" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A915" t="s">
+        <v>3</v>
+      </c>
+      <c r="B915" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B916" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B917" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B918" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A920" t="s">
+        <v>5</v>
+      </c>
+      <c r="B920" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A921" t="s">
+        <v>6</v>
+      </c>
+      <c r="B921" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B922" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A924" t="s">
+        <v>8</v>
+      </c>
+      <c r="B924" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A927" t="s">
+        <v>2</v>
+      </c>
+      <c r="B927" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A928" t="s">
+        <v>1</v>
+      </c>
+      <c r="B928" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A929" t="s">
+        <v>0</v>
+      </c>
+      <c r="B929" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A930" t="s">
+        <v>3</v>
+      </c>
+      <c r="B930" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B931" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A933" t="s">
+        <v>5</v>
+      </c>
+      <c r="B933" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A934" t="s">
+        <v>6</v>
+      </c>
+      <c r="B934" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B935" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A937" t="s">
+        <v>8</v>
+      </c>
+      <c r="B937" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A940" t="s">
+        <v>2</v>
+      </c>
+      <c r="B940" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A941" t="s">
+        <v>1</v>
+      </c>
+      <c r="B941" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A942" t="s">
+        <v>0</v>
+      </c>
+      <c r="B942" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A943" t="s">
+        <v>3</v>
+      </c>
+      <c r="B943" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B944" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A946" t="s">
+        <v>5</v>
+      </c>
+      <c r="B946" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A947" t="s">
+        <v>6</v>
+      </c>
+      <c r="B947" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B948" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B949" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A951" t="s">
+        <v>8</v>
+      </c>
+      <c r="B951" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A954" t="s">
+        <v>2</v>
+      </c>
+      <c r="B954" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A955" t="s">
+        <v>1</v>
+      </c>
+      <c r="B955" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A956" t="s">
+        <v>0</v>
+      </c>
+      <c r="B956" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A957" t="s">
+        <v>3</v>
+      </c>
+      <c r="B957" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B958" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B960" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A961" t="s">
+        <v>6</v>
+      </c>
+      <c r="B961" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B962" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B963" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A965" t="s">
+        <v>8</v>
+      </c>
+      <c r="B965" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A968" t="s">
+        <v>2</v>
+      </c>
+      <c r="B968" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A969" t="s">
+        <v>1</v>
+      </c>
+      <c r="B969" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A970" t="s">
+        <v>0</v>
+      </c>
+      <c r="B970" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A971" t="s">
+        <v>3</v>
+      </c>
+      <c r="B971" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B972" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B974" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A975" t="s">
+        <v>6</v>
+      </c>
+      <c r="B975" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B976" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B977" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A979" t="s">
+        <v>8</v>
+      </c>
+      <c r="B979" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A982" t="s">
+        <v>2</v>
+      </c>
+      <c r="B982" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A983" t="s">
+        <v>1</v>
+      </c>
+      <c r="B983" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A984" t="s">
+        <v>0</v>
+      </c>
+      <c r="B984" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A985" t="s">
+        <v>3</v>
+      </c>
+      <c r="B985" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B986" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B987" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B988" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B990" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A991" t="s">
+        <v>6</v>
+      </c>
+      <c r="B991" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B992" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A994" t="s">
+        <v>8</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A997" t="s">
+        <v>2</v>
+      </c>
+      <c r="B997" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A998" t="s">
+        <v>1</v>
+      </c>
+      <c r="B998" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A999" t="s">
+        <v>0</v>
+      </c>
+      <c r="B999" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1000" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1001" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1002" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1003" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1006" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1007" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1009" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1009" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1012" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1013" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1014" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1015" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1016" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1019" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1020" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1022" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1022" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1025" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1026" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1027" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1028" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1029" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1032" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1033" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1034" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1036" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1036" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1039" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1040" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1041" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1042" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1043" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1046" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1047" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1048" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1050" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1053" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1054" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1055" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1056" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1057" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1058" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1061" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1062" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1064" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1067" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1068" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1069" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1070" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1071" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1072" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1075" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1076" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1078" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1078" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1081" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1082" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1083" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1084" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1085" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1088" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1089" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1091" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1091" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1094" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1095" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1096" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1097" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1098" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1102" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1103" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1105" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1112" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1116" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1117" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1119" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1122" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1126" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1130" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B1131" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1133" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
